--- a/Sesión 3/tiempos.xlsx
+++ b/Sesión 3/tiempos.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E490B-A530-4867-BB3A-2E92D3175554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>t</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>exp</t>
   </si>
@@ -45,26 +43,46 @@
     <t>h_MST</t>
   </si>
   <si>
-    <t>h_Hungaro</t>
-  </si>
-  <si>
     <t>gr17</t>
   </si>
   <si>
     <t>PEA*</t>
+  </si>
+  <si>
+    <t>t (s)</t>
+  </si>
+  <si>
+    <t>h_Húngaro</t>
+  </si>
+  <si>
+    <t>gr21</t>
+  </si>
+  <si>
+    <t>h_nn</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,15 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -119,11 +131,117 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -155,6 +273,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -171,16 +301,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:G5"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="gr17" dataDxfId="0"/>
-    <tableColumn id="2" name="h_pobre" dataDxfId="1"/>
-    <tableColumn id="3" name="h1" dataDxfId="8"/>
-    <tableColumn id="4" name="h2" dataDxfId="7"/>
-    <tableColumn id="5" name="h_MST" dataDxfId="6"/>
-    <tableColumn id="6" name="h_Hungaro" dataDxfId="5"/>
-    <tableColumn id="7" name="PEA*" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:H5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:H5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="gr17" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="h_pobre" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="h1" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="h2" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="h_MST" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="h_Húngaro" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PEA*" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{42FF7ACE-5BD2-4980-A204-7170F2E5F866}" name="h_nn" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D612C43F-2E89-413B-93E4-019F98BE0EB4}" name="Tabla22" displayName="Tabla22" ref="A7:H11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A7:H11" xr:uid="{D612C43F-2E89-413B-93E4-019F98BE0EB4}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{62851DA2-F45D-432B-BDA7-847C88736709}" name="gr21" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D5E45E75-BD8A-41D5-AC0C-D0DD6EE68AB0}" name="h_pobre" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9EA9A642-646E-44CA-ADFC-58E6B49BCBF0}" name="h1" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A380B90C-83AE-4D5B-A688-4BA4A9DF9E38}" name="h2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{5E204DD6-ADDD-44E0-BCF4-E10ED3135CFC}" name="h_MST" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E35CE882-9D29-444C-BE7C-487D5759E54F}" name="h_Húngaro" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{756360ED-6F14-4B81-8EF1-16A7B07B899A}" name="PEA*" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{A6D39416-DC95-494D-B41A-5B8D785A39D1}" name="h_nn" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,70 +596,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4">
+        <v>41.760980844497603</v>
+      </c>
+      <c r="C2" s="5">
+        <v>42.068654537200899</v>
+      </c>
+      <c r="D2" s="5">
+        <v>84.431293010711599</v>
+      </c>
+      <c r="E2" s="5">
+        <v>16.674253225326499</v>
+      </c>
+      <c r="F2" s="5">
+        <v>424.32943820953301</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.25600028038024902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>8.3333333333333339E-4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6.134259259259259E-4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.1805555555555556E-3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5.2314814814814819E-3</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.0416666666666667E-3</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>524290</v>
@@ -531,11 +683,13 @@
       <c r="G3" s="1">
         <v>2709</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>1101</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
+      <c r="A4" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -555,11 +709,13 @@
       <c r="G4" s="1">
         <v>276</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>2085</v>
@@ -579,13 +735,138 @@
       <c r="G5" s="1">
         <v>2191</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>133.69512796401901</v>
+      </c>
+      <c r="D8" s="6">
+        <v>473.098633527755</v>
+      </c>
+      <c r="E8" s="6">
+        <v>14.0214264392852</v>
+      </c>
+      <c r="F8" s="6">
+        <v>297.85089445114102</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5">
+        <v>0.92548203468322698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9">
+        <v>591821</v>
+      </c>
+      <c r="D9" s="8">
+        <v>561594</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7202</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2870</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="1">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2707</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2707</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2707</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2707</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="1">
+        <v>3078</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Sesión 3/tiempos.xlsx
+++ b/Sesión 3/tiempos.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E490B-A530-4867-BB3A-2E92D3175554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4897814E-7314-4DC7-8438-DD120AFC22A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14430" yWindow="0" windowWidth="14370" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>exp</t>
   </si>
@@ -58,16 +70,41 @@
     <t>gr21</t>
   </si>
   <si>
-    <t>h_nn</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>h_BI</t>
+  </si>
+  <si>
+    <t>h_NN</t>
+  </si>
+  <si>
+    <t>h_NN (ε = 0,2)</t>
+  </si>
+  <si>
+    <t>h_NN (ε = 0,15)</t>
+  </si>
+  <si>
+    <t>h_NN (ε = 0,1)</t>
+  </si>
+  <si>
+    <t>h_BI (ε = 0,2)</t>
+  </si>
+  <si>
+    <t>h_BI (ε = 0,15)</t>
+  </si>
+  <si>
+    <t>h_BI (ε = 0,1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,11 +115,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,38 +158,198 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -161,13 +359,66 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -179,70 +430,24 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -252,33 +457,203 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -301,34 +676,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:H5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:H5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="gr17" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="h_pobre" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="h1" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="h2" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="h_MST" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="h_Húngaro" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PEA*" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{42FF7ACE-5BD2-4980-A204-7170F2E5F866}" name="h_nn" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:O5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:O5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="gr17" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="h_pobre" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="h1" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="h2" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="h_MST" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="h_Húngaro" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PEA*" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{42FF7ACE-5BD2-4980-A204-7170F2E5F866}" name="h_NN" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{9245094B-F550-48BF-B9EC-9F805CC88528}" name="h_BI" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EC0ACF6D-BED6-4485-836C-66EA47BFE4A3}" name="h_NN (ε = 0,2)" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{D2587D36-50A2-4581-923F-9388BBEA2D41}" name="h_NN (ε = 0,15)" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{9F29CBD6-2AC1-4C82-A662-EB63C1697C68}" name="h_NN (ε = 0,1)" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{DB2EAC58-4A82-47B0-B6C7-CA5DE669F0D2}" name="h_BI (ε = 0,2)" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{9A7084A0-7C6B-4181-A205-BBFE3D3259DF}" name="h_BI (ε = 0,15)" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{0763F8EB-7653-44A8-A2EC-06F1B38736FA}" name="h_BI (ε = 0,1)" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D612C43F-2E89-413B-93E4-019F98BE0EB4}" name="Tabla22" displayName="Tabla22" ref="A7:H11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A7:H11" xr:uid="{D612C43F-2E89-413B-93E4-019F98BE0EB4}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62851DA2-F45D-432B-BDA7-847C88736709}" name="gr21" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D5E45E75-BD8A-41D5-AC0C-D0DD6EE68AB0}" name="h_pobre" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9EA9A642-646E-44CA-ADFC-58E6B49BCBF0}" name="h1" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A380B90C-83AE-4D5B-A688-4BA4A9DF9E38}" name="h2" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{5E204DD6-ADDD-44E0-BCF4-E10ED3135CFC}" name="h_MST" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{E35CE882-9D29-444C-BE7C-487D5759E54F}" name="h_Húngaro" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{756360ED-6F14-4B81-8EF1-16A7B07B899A}" name="PEA*" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{A6D39416-DC95-494D-B41A-5B8D785A39D1}" name="h_nn" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D612C43F-2E89-413B-93E4-019F98BE0EB4}" name="Tabla22" displayName="Tabla22" ref="A7:O11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A7:O11" xr:uid="{D612C43F-2E89-413B-93E4-019F98BE0EB4}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{62851DA2-F45D-432B-BDA7-847C88736709}" name="gr21" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{D5E45E75-BD8A-41D5-AC0C-D0DD6EE68AB0}" name="h_pobre" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9EA9A642-646E-44CA-ADFC-58E6B49BCBF0}" name="h1" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{A380B90C-83AE-4D5B-A688-4BA4A9DF9E38}" name="h2" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{5E204DD6-ADDD-44E0-BCF4-E10ED3135CFC}" name="h_MST" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{E35CE882-9D29-444C-BE7C-487D5759E54F}" name="h_Húngaro" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{756360ED-6F14-4B81-8EF1-16A7B07B899A}" name="PEA*" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{A6D39416-DC95-494D-B41A-5B8D785A39D1}" name="h_NN" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{83C2A78A-3CA2-4546-AD23-E06064019239}" name="h_BI" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{D4EDB577-5CCF-45C6-AA41-E80F56D13F20}" name="h_NN (ε = 0,2)" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{6C810A0F-1320-4913-80BF-CFB3E4ED0714}" name="h_NN (ε = 0,15)" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{A405FE12-A398-4F2D-8251-187C1E915AB4}" name="h_NN (ε = 0,1)" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{034A0324-9195-4291-B2F6-DB60F71E0491}" name="h_BI (ε = 0,2)" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{5736C743-563E-4A17-BEBF-2F5B9F158052}" name="h_BI (ε = 0,15)" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{2C99D9E0-8AF5-4E0A-9111-582101314FA8}" name="h_BI (ε = 0,1)" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -597,271 +986,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>48.611998319625798</v>
+      </c>
+      <c r="C2" s="6">
+        <v>39.389000415802002</v>
+      </c>
+      <c r="D2" s="6">
+        <v>82.757004022598196</v>
+      </c>
+      <c r="E2" s="6">
+        <v>16.559584379196099</v>
+      </c>
+      <c r="F2" s="6">
+        <v>431.09930062294001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2.69303297996521</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.24199771881103499</v>
+      </c>
+      <c r="I2" s="6">
+        <v>6.7997217178344699E-2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.20400094985961</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.5469970703125</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.33902883529663003</v>
+      </c>
+      <c r="M2" s="10">
+        <v>20.315854310989302</v>
+      </c>
+      <c r="N2" s="10">
+        <v>7.7890284061431796</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0.70699834823608398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12">
+        <v>524290</v>
+      </c>
+      <c r="C3" s="12">
+        <v>321362</v>
+      </c>
+      <c r="D3" s="12">
+        <v>248137</v>
+      </c>
+      <c r="E3" s="12">
+        <v>30413</v>
+      </c>
+      <c r="F3" s="12">
+        <v>14378</v>
+      </c>
+      <c r="G3" s="12">
+        <v>4346</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="12">
+        <v>18</v>
+      </c>
+      <c r="J3" s="12">
+        <v>6968</v>
+      </c>
+      <c r="K3" s="13">
+        <v>2921</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1584</v>
+      </c>
+      <c r="M3" s="13">
+        <v>13146</v>
+      </c>
+      <c r="N3" s="13">
+        <v>4062</v>
+      </c>
+      <c r="O3" s="13">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>428</v>
+      </c>
+      <c r="G4" s="12">
+        <v>31</v>
+      </c>
+      <c r="H4" s="12">
+        <v>105</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>292</v>
+      </c>
+      <c r="K4" s="13">
+        <v>125</v>
+      </c>
+      <c r="L4" s="13">
+        <v>128</v>
+      </c>
+      <c r="M4" s="13">
+        <v>367</v>
+      </c>
+      <c r="N4" s="13">
+        <v>107</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2085</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2085</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2085</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2085</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2085</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2090</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2090</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2090</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2090</v>
+      </c>
+      <c r="K5" s="13">
+        <v>2090</v>
+      </c>
+      <c r="L5" s="13">
+        <v>2090</v>
+      </c>
+      <c r="M5" s="13">
+        <v>2085</v>
+      </c>
+      <c r="N5" s="13">
+        <v>2085</v>
+      </c>
+      <c r="O5" s="13">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="C8" s="9">
+        <v>131.87903451919499</v>
+      </c>
+      <c r="D8" s="9">
+        <v>460.04823684692298</v>
+      </c>
+      <c r="E8" s="9">
+        <v>13.3610332012176</v>
+      </c>
+      <c r="F8" s="8">
+        <v>259.92962551116898</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.245996713638305</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.74102735519409102</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.176998376846313</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1.06099557876586</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.37599945068359297</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0.47799897193908603</v>
+      </c>
+      <c r="M8" s="9">
+        <v>13.675113201141301</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2.62489461898803</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1.11798691749572</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4">
-        <v>41.760980844497603</v>
-      </c>
-      <c r="C2" s="5">
-        <v>42.068654537200899</v>
-      </c>
-      <c r="D2" s="5">
-        <v>84.431293010711599</v>
-      </c>
-      <c r="E2" s="5">
-        <v>16.674253225326499</v>
-      </c>
-      <c r="F2" s="5">
-        <v>424.32943820953301</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1.0416666666666667E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.25600028038024902</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>591821</v>
+      </c>
+      <c r="D9" s="3">
+        <v>561594</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7202</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2870</v>
+      </c>
+      <c r="G9" s="1">
+        <v>438</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2989</v>
+      </c>
+      <c r="I9" s="3">
+        <v>22</v>
+      </c>
+      <c r="J9" s="11">
+        <v>3929</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1229</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1658</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1590</v>
+      </c>
+      <c r="N9" s="3">
+        <v>204</v>
+      </c>
+      <c r="O9" s="3">
+        <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>524290</v>
-      </c>
-      <c r="C3" s="1">
-        <v>321362</v>
-      </c>
-      <c r="D3" s="1">
-        <v>248137</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30413</v>
-      </c>
-      <c r="F3" s="1">
-        <v>14378</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>367</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>410</v>
+      </c>
+      <c r="K10" s="11">
+        <v>172</v>
+      </c>
+      <c r="L10" s="11">
+        <v>234</v>
+      </c>
+      <c r="M10" s="3">
+        <v>64</v>
+      </c>
+      <c r="N10" s="3">
+        <v>6</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2707</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2707</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2707</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2707</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2949</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3078</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2943</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2707</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2803</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2803</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2707</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2707</v>
+      </c>
+      <c r="O11" s="3">
         <v>2709</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>428</v>
-      </c>
-      <c r="G4" s="1">
-        <v>276</v>
-      </c>
-      <c r="H4" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2085</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2085</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2085</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2085</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2085</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2191</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>133.69512796401901</v>
-      </c>
-      <c r="D8" s="6">
-        <v>473.098633527755</v>
-      </c>
-      <c r="E8" s="6">
-        <v>14.0214264392852</v>
-      </c>
-      <c r="F8" s="6">
-        <v>297.85089445114102</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5">
-        <v>0.92548203468322698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9">
-        <v>591821</v>
-      </c>
-      <c r="D9" s="8">
-        <v>561594</v>
-      </c>
-      <c r="E9" s="7">
-        <v>7202</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2870</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="1">
-        <v>2989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="1">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2707</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2707</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2707</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2707</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="1">
-        <v>3078</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
